--- a/config/default/forms/contact/patient_support_group-create.xlsx
+++ b/config/default/forms/contact/patient_support_group-create.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="340">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -615,6 +615,7 @@
         <color rgb="FF000000"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">बाहरी </t>
     </r>
@@ -642,6 +643,7 @@
         <color rgb="FF000000"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">बाहिरि </t>
     </r>
@@ -717,6 +719,7 @@
         <color rgb="FF000000"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">क्या आप इस स्थान को प्राथमिक कॉंटॅक्ट का नाम देना चाहेंगे</t>
     </r>
@@ -744,6 +747,7 @@
         <color rgb="FF000000"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">के तपाइ यस स्थानकाे प्राथमिक सम्पर्क नाम दिन चाहानु हुन्छ</t>
     </r>
@@ -930,87 +934,6 @@
     <t xml:space="preserve">roles</t>
   </si>
   <si>
-    <t xml:space="preserve">chw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chw_supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHW Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सामुदायिक स्वास्थ्य कर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kader Pengawas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur ASC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">नर्स</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perawat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muuguzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff médical</t>
-  </si>
-  <si>
     <t xml:space="preserve">kp_case_manager</t>
   </si>
   <si>
@@ -1049,6 +972,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">नहीं</t>
     </r>
@@ -1066,6 +990,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">मैं इसे मैन्युअल रूप से नाम देना चाहता हूं</t>
     </r>
@@ -1082,6 +1007,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">होइन</t>
     </r>
@@ -1099,6 +1025,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">म आफैँ नाम दिन चाहन्छु</t>
     </r>
@@ -1184,6 +1111,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">का ज़िला</t>
     </r>
@@ -1209,6 +1137,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">को जिल्ला </t>
     </r>
@@ -1234,6 +1163,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">का स्वास्थ्य केंद्र</t>
     </r>
@@ -1259,6 +1189,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">को स्वास्थ्य केन्द्र</t>
     </r>
@@ -1284,6 +1215,7 @@
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">का क्षेत्र</t>
     </r>
@@ -1311,6 +1243,7 @@
         <color rgb="FF000000"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">को क्षेत्र</t>
     </r>
@@ -1357,7 +1290,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1393,6 +1326,7 @@
       <color rgb="FF000000"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1406,11 +1340,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1521,7 +1450,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1666,14 +1595,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1774,40 +1695,41 @@
   <dimension ref="A1:AR74"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y27" activeCellId="0" sqref="Y27"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.45918367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.45918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="53.2755102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="26.1887755102041"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="47.8775510204082"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="71.2755102040816"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="23" min="20" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="37.0765306122449"/>
-    <col collapsed="false" hidden="false" max="36" min="27" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="44" min="39" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.1683673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.4285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.0867346938776"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="73.7959183673469"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.0816326530612"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="35.8163265306122"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="23" min="20" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.27040816326531"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="38.4285714285714"/>
+    <col collapsed="false" hidden="false" max="36" min="27" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="44" min="39" style="0" width="18.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="45" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6159,20 +6081,22 @@
   <dimension ref="A1:Z65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.25"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2091836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6529,22 +6453,12 @@
       <c r="C9" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>278</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>281</v>
-      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="20" t="s">
-        <v>282</v>
-      </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
@@ -6568,27 +6482,17 @@
         <v>275</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>288</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="20" t="s">
-        <v>289</v>
-      </c>
+      <c r="I10" s="20"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -6612,27 +6516,17 @@
         <v>275</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>292</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="20" t="s">
-        <v>295</v>
-      </c>
+      <c r="I11" s="20"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -6656,27 +6550,17 @@
         <v>275</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>301</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="20" t="s">
-        <v>302</v>
-      </c>
+      <c r="I12" s="20"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -6696,21 +6580,31 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>285</v>
+      </c>
       <c r="H13" s="31"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -6730,21 +6624,31 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>290</v>
+      </c>
       <c r="H14" s="31"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>291</v>
+      </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -6765,20 +6669,30 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="37"/>
+        <v>293</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="H15" s="31"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>298</v>
+      </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -6799,20 +6713,30 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="37"/>
+        <v>300</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -6832,30 +6756,30 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>230</v>
+      <c r="A17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>307</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>232</v>
+        <v>308</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>309</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="20" t="s">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -6876,30 +6800,30 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="E18" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="F18" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="G18" s="37" t="s">
         <v>316</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>317</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -6921,29 +6845,29 @@
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="E19" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="F19" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="G19" s="37" t="s">
         <v>322</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>324</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -6965,29 +6889,29 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="F20" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="G20" s="38" t="s">
         <v>328</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>331</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -7008,30 +6932,30 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>73</v>
+      <c r="A21" s="39" t="s">
+        <v>330</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="20" t="s">
-        <v>338</v>
+        <v>102</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -7051,182 +6975,10 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="31"/>
-      <c r="I25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7252,32 +7004,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1887755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="7" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.03061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="7" style="0" width="8.18877551020408"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="18.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="8"/>
@@ -7302,20 +7055,20 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="42" t="str">
+        <v>337</v>
+      </c>
+      <c r="C2" s="40" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-09-28  11-23</v>
+        <v>2020-09-30  10-54</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
